--- a/data/trans_orig/IP43-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP43-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C3F4065-8FF0-43C8-AA7A-D5634BDB5732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08BE2B0-7B50-4A19-8B1B-F0BB1AEEC69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2FABAB3F-B393-4D44-B5CF-05384C889538}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6157A65F-228D-45C2-9D84-6A88648DAC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="293">
   <si>
     <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2012 (Tasa respuesta: 99,09%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -94,28 +94,28 @@
     <t>19,07%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>10,48%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
   </si>
   <si>
     <t>15,14%</t>
   </si>
   <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -124,34 +124,34 @@
     <t>80,93%</t>
   </si>
   <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>89,52%</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,05%</t>
@@ -166,121 +166,115 @@
     <t>32,87%</t>
   </si>
   <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
     <t>26,05%</t>
   </si>
   <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
   </si>
   <si>
     <t>73,95%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
     <t>67,51%</t>
   </si>
   <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -295,55 +289,55 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
   </si>
   <si>
     <t>16,47%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>83,53%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -361,55 +355,55 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>14,61%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
   </si>
   <si>
     <t>13,65%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>85,39%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>86,35%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -424,61 +418,61 @@
     <t>23,37%</t>
   </si>
   <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>23,1%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
   </si>
   <si>
     <t>76,9%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -493,55 +487,55 @@
     <t>22,1%</t>
   </si>
   <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>19,83%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>77,9%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
   </si>
   <si>
     <t>80,17%</t>
   </si>
   <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>1,16%</t>
@@ -556,55 +550,55 @@
     <t>14,76%</t>
   </si>
   <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
   </si>
   <si>
     <t>16,06%</t>
   </si>
   <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>83,94%</t>
   </si>
   <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -616,49 +610,55 @@
     <t>17,41%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
   </si>
   <si>
     <t>16,95%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>14,37%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
   </si>
   <si>
     <t>82,59%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
   </si>
   <si>
     <t>83,05%</t>
   </si>
   <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>82,81%</t>
   </si>
   <si>
-    <t>85,63%</t>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>0,77%</t>
@@ -673,55 +673,55 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>6,75%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
   </si>
   <si>
     <t>93,25%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -733,73 +733,73 @@
     <t>6,48%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>9,37%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>90,63%</t>
   </si>
   <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>11,88%</t>
@@ -808,31 +808,25 @@
     <t>10,56%</t>
   </si>
   <si>
-    <t>13,27%</t>
-  </si>
-  <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
   </si>
   <si>
     <t>88,12%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
   </si>
   <si>
     <t>89,44%</t>
@@ -1334,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A2D762-9BFA-4B4F-B129-0FD14079DBB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83151A9-70F1-456D-9075-21201AD927E4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1733,10 +1727,10 @@
         <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>112</v>
@@ -1745,13 +1739,13 @@
         <v>80602</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1760,13 @@
         <v>86300</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -1781,13 +1775,13 @@
         <v>77874</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>232</v>
@@ -1796,13 +1790,13 @@
         <v>164174</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,7 +1852,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1876,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1891,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1906,7 +1900,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1915,13 @@
         <v>73891</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>103</v>
@@ -1936,13 +1930,13 @@
         <v>64425</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
@@ -1951,13 +1945,13 @@
         <v>138316</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1966,13 @@
         <v>146680</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>214</v>
@@ -1987,13 +1981,13 @@
         <v>140680</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>421</v>
@@ -2002,13 +1996,13 @@
         <v>287360</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,7 +2058,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2082,37 +2076,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2127,13 +2121,13 @@
         <v>27204</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -2142,13 +2136,13 @@
         <v>25419</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
@@ -2157,13 +2151,13 @@
         <v>52623</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2172,13 @@
         <v>138199</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>200</v>
@@ -2193,13 +2187,13 @@
         <v>128674</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>410</v>
@@ -2208,13 +2202,13 @@
         <v>266873</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2264,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2288,37 +2282,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2327,13 @@
         <v>26170</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H21" s="7">
         <v>40</v>
@@ -2348,13 +2342,13 @@
         <v>30484</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>75</v>
@@ -2363,13 +2357,13 @@
         <v>56654</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2378,13 @@
         <v>180054</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>233</v>
@@ -2399,13 +2393,13 @@
         <v>178206</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M22" s="7">
         <v>478</v>
@@ -2414,13 +2408,13 @@
         <v>358260</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,37 +2488,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2533,13 @@
         <v>174370</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>239</v>
@@ -2554,13 +2548,13 @@
         <v>160932</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>495</v>
@@ -2569,13 +2563,13 @@
         <v>335301</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2584,13 @@
         <v>571834</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>778</v>
@@ -2605,13 +2599,13 @@
         <v>544658</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>1585</v>
@@ -2620,13 +2614,13 @@
         <v>1116493</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2676,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2703,7 +2697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA834D55-B55D-406C-9AA6-3CD30928E238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB9D2F4-0ADD-492F-A2BA-E95EA77044BA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2720,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2833,37 +2827,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,13 +2872,13 @@
         <v>5652</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2893,13 +2887,13 @@
         <v>3886</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -2908,13 +2902,13 @@
         <v>9538</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2923,13 @@
         <v>19922</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H6" s="7">
         <v>20</v>
@@ -2944,13 +2938,13 @@
         <v>18641</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -2959,13 +2953,13 @@
         <v>38563</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,37 +3033,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3078,13 @@
         <v>18084</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H9" s="7">
         <v>27</v>
@@ -3099,13 +3093,13 @@
         <v>17852</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>52</v>
@@ -3114,13 +3108,13 @@
         <v>35935</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,13 +3129,13 @@
         <v>104418</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>136</v>
@@ -3150,13 +3144,13 @@
         <v>93328</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>276</v>
@@ -3165,13 +3159,13 @@
         <v>197747</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,7 +3221,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3245,7 +3239,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3260,7 +3254,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3275,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,13 +3284,13 @@
         <v>39065</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -3305,13 +3299,13 @@
         <v>35126</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -3320,13 +3314,13 @@
         <v>74191</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3335,13 @@
         <v>185294</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>275</v>
@@ -3356,13 +3350,13 @@
         <v>172121</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>548</v>
@@ -3371,10 +3365,10 @@
         <v>357415</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>206</v>
@@ -3433,7 +3427,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3639,7 +3633,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3672,7 +3666,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3863,37 +3857,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3938,7 @@
         <v>255</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3953,13 @@
         <v>659511</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H26" s="7">
         <v>922</v>
@@ -3974,13 +3968,13 @@
         <v>617552</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>1863</v>
@@ -3989,13 +3983,13 @@
         <v>1277063</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,7 +4045,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4072,7 +4066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94AFBE6-6FCB-42CB-91E1-955377757AAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A652827-77F4-443C-8798-7624B17B015B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4089,7 +4083,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4196,10 +4190,10 @@
         <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -4211,10 +4205,10 @@
         <v>16787</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -4226,10 +4220,10 @@
         <v>29485</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4253,7 +4247,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4283,7 +4277,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,7 +4298,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4334,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,10 +4396,10 @@
         <v>114596</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -4417,10 +4411,10 @@
         <v>103895</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -4432,10 +4426,10 @@
         <v>218490</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4459,7 +4453,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4474,7 +4468,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4489,7 +4483,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4525,7 +4519,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4540,7 +4534,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4590,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4608,10 +4602,10 @@
         <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -4623,10 +4617,10 @@
         <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -4638,10 +4632,10 @@
         <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4680,7 +4674,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4695,7 +4689,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4725,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4746,7 +4740,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4796,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4814,10 +4808,10 @@
         <v>173208</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -4829,10 +4823,10 @@
         <v>168735</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -4844,10 +4838,10 @@
         <v>341943</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4871,37 +4865,37 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,37 +4916,37 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,7 +5002,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5020,10 +5014,10 @@
         <v>175016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -5035,10 +5029,10 @@
         <v>171943</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -5050,10 +5044,10 @@
         <v>346958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -5077,7 +5071,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5092,7 +5086,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5107,7 +5101,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5143,7 +5137,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5158,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,10 +5220,10 @@
         <v>725704</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>36</v>
@@ -5241,10 +5235,10 @@
         <v>653712</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>36</v>
@@ -5256,10 +5250,10 @@
         <v>1379416</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>36</v>
@@ -5283,7 +5277,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5298,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5313,7 +5307,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5349,7 +5343,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5364,7 +5358,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,7 +5414,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP43-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP43-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08BE2B0-7B50-4A19-8B1B-F0BB1AEEC69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE1DB63D-4B35-4D61-BDC5-AD011DFDADC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6157A65F-228D-45C2-9D84-6A88648DAC7B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AE66944F-F9AF-4693-B398-F0C239AC5E94}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="251">
   <si>
     <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2012 (Tasa respuesta: 99,09%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>994.0</t>
@@ -79,820 +79,694 @@
     <t>0%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>Adulto según si aceptaría que le llmasen para participar en futuras investigaciones en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>0,31%</t>
   </si>
   <si>
+    <t>99,16%</t>
+  </si>
+  <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
     <t>99,58%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -1328,8 +1202,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83151A9-70F1-456D-9075-21201AD927E4}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F1C155-53C8-4890-9117-72B98DF5B81B}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1497,10 +1371,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>4854</v>
+        <v>40604</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1512,10 +1386,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I5" s="7">
-        <v>2251</v>
+        <v>47104</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1527,10 +1401,10 @@
         <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="N5" s="7">
-        <v>7106</v>
+        <v>87708</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1548,10 +1422,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="D6" s="7">
-        <v>20601</v>
+        <v>97100</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1563,10 +1437,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="I6" s="7">
-        <v>19226</v>
+        <v>106901</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1578,10 +1452,10 @@
         <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="N6" s="7">
-        <v>39826</v>
+        <v>204001</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1599,10 +1473,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>137704</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1614,10 +1488,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="I7" s="7">
-        <v>21477</v>
+        <v>154005</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1629,10 +1503,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>397</v>
       </c>
       <c r="N7" s="7">
-        <v>46932</v>
+        <v>291709</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1679,22 +1553,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,40 +1577,40 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D9" s="7">
-        <v>42250</v>
+        <v>64425</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="H9" s="7">
+        <v>112</v>
+      </c>
+      <c r="I9" s="7">
+        <v>73891</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="7">
-        <v>53</v>
-      </c>
-      <c r="I9" s="7">
-        <v>38352</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="M9" s="7">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="N9" s="7">
-        <v>80602</v>
+        <v>138316</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>46</v>
@@ -1754,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="D10" s="7">
-        <v>86300</v>
+        <v>140680</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1769,10 +1643,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="I10" s="7">
-        <v>77874</v>
+        <v>146680</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -1781,22 +1655,22 @@
         <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>232</v>
+        <v>421</v>
       </c>
       <c r="N10" s="7">
-        <v>164174</v>
+        <v>287360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1805,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>128550</v>
+        <v>205105</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1820,10 +1694,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="I11" s="7">
-        <v>116226</v>
+        <v>220571</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1835,10 +1709,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>344</v>
+        <v>636</v>
       </c>
       <c r="N11" s="7">
-        <v>244776</v>
+        <v>425676</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1852,7 +1726,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1870,7 +1744,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1885,7 +1759,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1900,7 +1774,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,49 +1783,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7">
-        <v>73891</v>
+        <v>25419</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="I13" s="7">
-        <v>64425</v>
+        <v>27204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N13" s="7">
-        <v>138316</v>
+        <v>52623</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,49 +1834,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D14" s="7">
-        <v>146680</v>
+        <v>128674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I14" s="7">
-        <v>140680</v>
+        <v>138199</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="N14" s="7">
-        <v>287360</v>
+        <v>266873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2011,10 +1885,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>220571</v>
+        <v>154093</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2026,10 +1900,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>317</v>
+        <v>254</v>
       </c>
       <c r="I15" s="7">
-        <v>205105</v>
+        <v>165403</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2041,10 +1915,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>636</v>
+        <v>494</v>
       </c>
       <c r="N15" s="7">
-        <v>425676</v>
+        <v>319496</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2058,7 +1932,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2076,7 +1950,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2091,7 +1965,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2106,7 +1980,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,49 +1989,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>27204</v>
+        <v>30484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7">
-        <v>25419</v>
+        <v>26170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="N17" s="7">
-        <v>52623</v>
+        <v>56654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2166,49 +2040,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>138199</v>
+        <v>178206</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H18" s="7">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="I18" s="7">
-        <v>128674</v>
+        <v>180054</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>410</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>266873</v>
+        <v>358260</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2217,10 +2091,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D19" s="7">
-        <v>165403</v>
+        <v>208690</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2232,10 +2106,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I19" s="7">
-        <v>154093</v>
+        <v>206224</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2247,10 +2121,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="N19" s="7">
-        <v>319496</v>
+        <v>414914</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2264,7 +2138,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2282,7 +2156,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2297,7 +2171,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2312,7 +2186,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2321,49 +2195,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>35</v>
+        <v>239</v>
       </c>
       <c r="D21" s="7">
-        <v>26170</v>
+        <v>160932</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H21" s="7">
-        <v>40</v>
+        <v>256</v>
       </c>
       <c r="I21" s="7">
-        <v>30484</v>
+        <v>174370</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M21" s="7">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="N21" s="7">
-        <v>56654</v>
+        <v>335301</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2372,49 +2246,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>245</v>
+        <v>778</v>
       </c>
       <c r="D22" s="7">
-        <v>180054</v>
+        <v>544658</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
-        <v>233</v>
+        <v>807</v>
       </c>
       <c r="I22" s="7">
-        <v>178206</v>
+        <v>571834</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
-        <v>478</v>
+        <v>1585</v>
       </c>
       <c r="N22" s="7">
-        <v>358260</v>
+        <v>1116493</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2423,10 +2297,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>280</v>
+        <v>1017</v>
       </c>
       <c r="D23" s="7">
-        <v>206224</v>
+        <v>705590</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -2438,10 +2312,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>273</v>
+        <v>1063</v>
       </c>
       <c r="I23" s="7">
-        <v>208690</v>
+        <v>746204</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2453,10 +2327,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>553</v>
+        <v>2080</v>
       </c>
       <c r="N23" s="7">
-        <v>414914</v>
+        <v>1451794</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -2469,222 +2343,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="A24" t="s">
         <v>123</v>
       </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>256</v>
-      </c>
-      <c r="D25" s="7">
-        <v>174370</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H25" s="7">
-        <v>239</v>
-      </c>
-      <c r="I25" s="7">
-        <v>160932</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="M25" s="7">
-        <v>495</v>
-      </c>
-      <c r="N25" s="7">
-        <v>335301</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>807</v>
-      </c>
-      <c r="D26" s="7">
-        <v>571834</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H26" s="7">
-        <v>778</v>
-      </c>
-      <c r="I26" s="7">
-        <v>544658</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1585</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1116493</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D27" s="7">
-        <v>746204</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I27" s="7">
-        <v>705590</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2080</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1451794</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>143</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2697,8 +2364,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB9D2F4-0ADD-492F-A2BA-E95EA77044BA}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D59413-A450-4E23-A66F-A35EDDD4776E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2714,7 +2381,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2827,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2842,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2857,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,49 +2533,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>5652</v>
+        <v>21738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>3886</v>
+        <v>23736</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="N5" s="7">
-        <v>9538</v>
+        <v>45473</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,49 +2584,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="D6" s="7">
-        <v>19922</v>
+        <v>111969</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="H6" s="7">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>18641</v>
+        <v>124340</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="N6" s="7">
-        <v>38563</v>
+        <v>236310</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,10 +2635,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2983,10 +2650,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2998,10 +2665,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3033,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3048,7 +2715,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3063,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,49 +2739,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7">
-        <v>18084</v>
+        <v>35126</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>17852</v>
+        <v>39065</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="M9" s="7">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="N9" s="7">
-        <v>35935</v>
+        <v>74191</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,49 +2790,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="D10" s="7">
-        <v>104418</v>
+        <v>172121</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="I10" s="7">
-        <v>93328</v>
+        <v>185294</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
-        <v>276</v>
+        <v>548</v>
       </c>
       <c r="N10" s="7">
-        <v>197747</v>
+        <v>357415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,10 +2841,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D11" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3189,10 +2856,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3204,10 +2871,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N11" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3221,7 +2888,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3239,37 +2906,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,49 +2945,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>39065</v>
+        <v>10528</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="H13" s="7">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>35126</v>
+        <v>9197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="M13" s="7">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>74191</v>
+        <v>19725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,49 +2996,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="D14" s="7">
-        <v>185294</v>
+        <v>145469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>172121</v>
+        <v>157476</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
-        <v>548</v>
+        <v>472</v>
       </c>
       <c r="N14" s="7">
-        <v>357415</v>
+        <v>302945</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3395,10 +3062,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I15" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3410,10 +3077,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3427,7 +3094,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3445,7 +3112,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3460,7 +3127,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3475,7 +3142,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,49 +3151,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>9197</v>
+        <v>19427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>10528</v>
+        <v>13334</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N17" s="7">
-        <v>19725</v>
+        <v>32762</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,49 +3202,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D18" s="7">
-        <v>157476</v>
+        <v>187993</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="H18" s="7">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="I18" s="7">
-        <v>145469</v>
+        <v>192402</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="M18" s="7">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="N18" s="7">
-        <v>302945</v>
+        <v>380394</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,10 +3253,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D19" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3601,10 +3268,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I19" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3616,10 +3283,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N19" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -3633,7 +3300,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3651,7 +3318,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3666,7 +3333,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3681,7 +3348,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,49 +3357,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>139</v>
       </c>
       <c r="D21" s="7">
-        <v>13334</v>
+        <v>86819</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="H21" s="7">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="I21" s="7">
-        <v>19427</v>
+        <v>85333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="M21" s="7">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="N21" s="7">
-        <v>32762</v>
+        <v>172152</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,49 +3408,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>271</v>
+        <v>922</v>
       </c>
       <c r="D22" s="7">
-        <v>192402</v>
+        <v>617552</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
-        <v>253</v>
+        <v>941</v>
       </c>
       <c r="I22" s="7">
-        <v>187993</v>
+        <v>659511</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
-        <v>524</v>
+        <v>1863</v>
       </c>
       <c r="N22" s="7">
-        <v>380394</v>
+        <v>1277063</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,10 +3459,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D23" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -3807,10 +3474,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I23" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3822,10 +3489,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N23" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -3838,222 +3505,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>124</v>
-      </c>
-      <c r="D25" s="7">
-        <v>85333</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H25" s="7">
-        <v>139</v>
-      </c>
-      <c r="I25" s="7">
-        <v>86819</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M25" s="7">
-        <v>263</v>
-      </c>
-      <c r="N25" s="7">
-        <v>172152</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>941</v>
-      </c>
-      <c r="D26" s="7">
-        <v>659511</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H26" s="7">
-        <v>922</v>
-      </c>
-      <c r="I26" s="7">
-        <v>617552</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1863</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1277063</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D27" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I27" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>143</v>
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4066,8 +3526,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A652827-77F4-443C-8798-7624B17B015B}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6701D2B3-6812-4169-8F12-559DE10A54DF}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4083,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4184,46 +3644,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -4247,7 +3707,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4262,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4277,7 +3737,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4313,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4328,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,10 +3797,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -4352,10 +3812,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4367,10 +3827,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4390,46 +3850,46 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I8" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N8" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -4453,7 +3913,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4468,7 +3928,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4483,7 +3943,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4519,7 +3979,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4534,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,10 +4003,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4558,10 +4018,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4573,10 +4033,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4590,52 +4050,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -4659,7 +4119,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4674,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4689,7 +4149,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,7 +4170,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4725,7 +4185,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -4740,7 +4200,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,10 +4209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4764,10 +4224,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4779,10 +4239,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N15" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4796,52 +4256,52 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D16" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I16" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N16" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -4865,7 +4325,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4880,7 +4340,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4895,7 +4355,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,7 +4376,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>283</v>
+        <v>59</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4931,7 +4391,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>59</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -4946,7 +4406,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,10 +4415,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4970,10 +4430,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4985,10 +4445,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N19" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5002,52 +4462,52 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D20" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H20" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I20" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="M20" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N20" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -5071,7 +4531,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5086,7 +4546,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5101,7 +4561,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,7 +4582,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5137,7 +4597,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5152,7 +4612,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,10 +4621,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D23" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -5176,10 +4636,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I23" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -5191,10 +4651,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -5207,222 +4667,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>977</v>
-      </c>
-      <c r="D24" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="7">
-        <v>943</v>
-      </c>
-      <c r="I24" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>977</v>
-      </c>
-      <c r="D27" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>943</v>
-      </c>
-      <c r="I27" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>143</v>
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
